--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.07983237357419237</v>
+        <v>0.124225337243856</v>
       </c>
       <c r="D2">
-        <v>0.08809637172227935</v>
+        <v>0.15309147801399</v>
       </c>
       <c r="E2">
-        <v>0.8410222768876692</v>
+        <v>0.8770976515231426</v>
       </c>
       <c r="F2">
-        <v>0.1724282638245576</v>
+        <v>0.2097823744357821</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07983237357419237</v>
+        <v>0.124225337243856</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9819461833004373</v>
+        <v>0.9868126371468151</v>
       </c>
       <c r="E3">
-        <v>0.132167309807993</v>
+        <v>0.2289024156088926</v>
       </c>
       <c r="F3">
-        <v>0.5796293582922676</v>
+        <v>0.6394415397233839</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08809637172227935</v>
+        <v>0.15309147801399</v>
       </c>
       <c r="C4">
-        <v>0.9819461833004373</v>
+        <v>0.9868126371468151</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.1533239265173558</v>
+        <v>0.2866881326726913</v>
       </c>
       <c r="F4">
-        <v>0.5990161043289908</v>
+        <v>0.6780132269713963</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8410222768876692</v>
+        <v>0.8770976515231426</v>
       </c>
       <c r="C5">
-        <v>0.132167309807993</v>
+        <v>0.2289024156088926</v>
       </c>
       <c r="D5">
-        <v>0.1533239265173558</v>
+        <v>0.2866881326726913</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.02932579611800978</v>
+        <v>0.06144005587143186</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1724282638245576</v>
+        <v>0.2097823744357821</v>
       </c>
       <c r="C6">
-        <v>0.5796293582922676</v>
+        <v>0.6394415397233839</v>
       </c>
       <c r="D6">
-        <v>0.5990161043289908</v>
+        <v>0.6780132269713963</v>
       </c>
       <c r="E6">
-        <v>0.02932579611800978</v>
+        <v>0.06144005587143186</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.755386767158445</v>
+        <v>-1.635474790239025</v>
       </c>
       <c r="D2">
-        <v>-1.709012531856726</v>
+        <v>-1.510746183936936</v>
       </c>
       <c r="E2">
-        <v>-0.2006949725485287</v>
+        <v>-0.157502792537778</v>
       </c>
       <c r="F2">
-        <v>-1.36648375636135</v>
+        <v>-1.314573876725897</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.755386767158445</v>
+        <v>1.635474790239025</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.02264085453216186</v>
+        <v>-0.01682629717159442</v>
       </c>
       <c r="E3">
-        <v>1.508181614491927</v>
+        <v>1.258191216948428</v>
       </c>
       <c r="F3">
-        <v>0.5543042168408723</v>
+        <v>0.4788449270112654</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.709012531856726</v>
+        <v>1.510746183936936</v>
       </c>
       <c r="C4">
-        <v>0.02264085453216186</v>
+        <v>0.01682629717159442</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.430156955214823</v>
+        <v>1.107632785577087</v>
       </c>
       <c r="F4">
-        <v>0.5261664279768719</v>
+        <v>0.4239932605635565</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2006949725485287</v>
+        <v>0.157502792537778</v>
       </c>
       <c r="C5">
-        <v>-1.508181614491927</v>
+        <v>-1.258191216948428</v>
       </c>
       <c r="D5">
-        <v>-1.430156955214823</v>
+        <v>-1.107632785577087</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.185635736082354</v>
+        <v>-2.033237266158273</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.36648375636135</v>
+        <v>1.314573876725897</v>
       </c>
       <c r="C6">
-        <v>-0.5543042168408723</v>
+        <v>-0.4788449270112654</v>
       </c>
       <c r="D6">
-        <v>-0.5261664279768719</v>
+        <v>-0.4239932605635565</v>
       </c>
       <c r="E6">
-        <v>2.185635736082354</v>
+        <v>2.033237266158273</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.124225337243856</v>
+        <v>0.5259620533206051</v>
       </c>
       <c r="D2">
-        <v>0.15309147801399</v>
+        <v>0.7688055750999077</v>
       </c>
       <c r="E2">
-        <v>0.8770976515231426</v>
+        <v>0.1964412987554125</v>
       </c>
       <c r="F2">
-        <v>0.2097823744357821</v>
+        <v>0.2854122677479369</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.124225337243856</v>
+        <v>0.5259620533206051</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9868126371468151</v>
+        <v>0.6039411273185205</v>
       </c>
       <c r="E3">
-        <v>0.2289024156088926</v>
+        <v>0.03538000289964227</v>
       </c>
       <c r="F3">
-        <v>0.6394415397233839</v>
+        <v>0.585084844335138</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.15309147801399</v>
+        <v>0.7688055750999077</v>
       </c>
       <c r="C4">
-        <v>0.9868126371468151</v>
+        <v>0.6039411273185205</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2866881326726913</v>
+        <v>0.09146634105699847</v>
       </c>
       <c r="F4">
-        <v>0.6780132269713963</v>
+        <v>0.3980941478389985</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8770976515231426</v>
+        <v>0.1964412987554125</v>
       </c>
       <c r="C5">
-        <v>0.2289024156088926</v>
+        <v>0.03538000289964227</v>
       </c>
       <c r="D5">
-        <v>0.2866881326726913</v>
+        <v>0.09146634105699847</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.06144005587143186</v>
+        <v>0.09515605848835174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2097823744357821</v>
+        <v>0.2854122677479369</v>
       </c>
       <c r="C6">
-        <v>0.6394415397233839</v>
+        <v>0.585084844335138</v>
       </c>
       <c r="D6">
-        <v>0.6780132269713963</v>
+        <v>0.3980941478389985</v>
       </c>
       <c r="E6">
-        <v>0.06144005587143186</v>
+        <v>0.09515605848835174</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.635474790239025</v>
+        <v>0.6444260393128027</v>
       </c>
       <c r="D2">
-        <v>-1.510746183936936</v>
+        <v>0.2975933904609593</v>
       </c>
       <c r="E2">
-        <v>-0.157502792537778</v>
+        <v>-1.332168391346221</v>
       </c>
       <c r="F2">
-        <v>-1.314573876725897</v>
+        <v>1.094878672428663</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.635474790239025</v>
+        <v>-0.6444260393128027</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.01682629717159442</v>
+        <v>-0.5263068096127822</v>
       </c>
       <c r="E3">
-        <v>1.258191216948428</v>
+        <v>-2.241877515359096</v>
       </c>
       <c r="F3">
-        <v>0.4788449270112654</v>
+        <v>0.554121516717494</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.510746183936936</v>
+        <v>-0.2975933904609593</v>
       </c>
       <c r="C4">
-        <v>0.01682629717159442</v>
+        <v>0.5263068096127822</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.107632785577087</v>
+        <v>-1.764865422592818</v>
       </c>
       <c r="F4">
-        <v>0.4239932605635565</v>
+        <v>0.861799808900477</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.157502792537778</v>
+        <v>1.332168391346221</v>
       </c>
       <c r="C5">
-        <v>-1.258191216948428</v>
+        <v>2.241877515359096</v>
       </c>
       <c r="D5">
-        <v>-1.107632785577087</v>
+        <v>1.764865422592818</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.033237266158273</v>
+        <v>1.743783514317689</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.314573876725897</v>
+        <v>-1.094878672428663</v>
       </c>
       <c r="C6">
-        <v>-0.4788449270112654</v>
+        <v>-0.554121516717494</v>
       </c>
       <c r="D6">
-        <v>-0.4239932605635565</v>
+        <v>-0.861799808900477</v>
       </c>
       <c r="E6">
-        <v>2.033237266158273</v>
+        <v>-1.743783514317689</v>
       </c>
       <c r="F6">
         <v>0</v>
